--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,109 +230,109 @@
     <t>20,60,5</t>
   </si>
   <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,102,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,48,46,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,149,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,151,152,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,153,154,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10,10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101,102,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,46,47,48,48,46,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,149,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,151,152,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,153,154,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,11 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,6 +512,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1103,10 +1115,10 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1123,7 +1135,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1131,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1140,7 +1152,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1148,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1157,7 +1169,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="11">
         <v>300</v>
@@ -1174,7 +1186,7 @@
         <v>500</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1182,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11">
         <v>400</v>
@@ -1191,7 +1203,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1199,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1208,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10"/>
@@ -1218,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1227,7 +1239,7 @@
         <v>300</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="10"/>
@@ -1237,7 +1249,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11">
         <v>40</v>
@@ -1246,7 +1258,7 @@
         <v>80</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1254,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1263,7 +1275,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1271,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11">
         <v>1500</v>
@@ -1280,7 +1292,7 @@
         <v>1800</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -1291,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="11">
         <v>3000</v>
@@ -1300,7 +1312,7 @@
         <v>3300</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -1311,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11">
         <v>4500</v>
@@ -1320,7 +1332,7 @@
         <v>4800</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1328,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11">
         <v>500</v>
@@ -1337,7 +1349,7 @@
         <v>700</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1345,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1354,7 +1366,7 @@
         <v>4000</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1366,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1503,7 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1515,7 +1527,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1538,7 +1550,7 @@
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1561,7 +1573,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1577,286 +1589,376 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>65</v>
       </c>
-      <c r="D9" s="21">
-        <v>2</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21">
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>66</v>
       </c>
-      <c r="D10" s="21">
-        <v>2</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21">
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>67</v>
       </c>
-      <c r="D11" s="21">
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21">
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>68</v>
       </c>
-      <c r="D12" s="21">
-        <v>2</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>70</v>
       </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <v>71</v>
       </c>
-      <c r="D14" s="21">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>72</v>
       </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>73</v>
       </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="19">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>74</v>
       </c>
-      <c r="D17" s="19">
-        <v>2</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="13">
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15">
         <v>1612828800</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>75</v>
       </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="13">
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15">
         <v>1612828800</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="15">
         <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>76</v>
       </c>
-      <c r="D19" s="19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="13">
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15">
         <v>1612828800</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>77</v>
       </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16">
         <v>5</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="13">
+      <c r="F20" s="16"/>
+      <c r="G20" s="15">
         <v>1612828800</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="15">
         <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="25">
+        <v>78</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="25">
+        <v>79</v>
+      </c>
+      <c r="D22" s="26">
+        <v>2</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="25">
+        <v>80</v>
+      </c>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="25">
+        <v>81</v>
+      </c>
+      <c r="D24" s="26">
+        <v>2</v>
+      </c>
+      <c r="E24" s="26">
+        <v>5</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="13">
+        <v>1613433600</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1614009599</v>
       </c>
     </row>
   </sheetData>
@@ -2054,14 +2156,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2089,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -2102,84 +2204,100 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>66</v>
+      <c r="E3" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>67</v>
+      <c r="E4" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>68</v>
+      <c r="E5" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>69</v>
+      <c r="E6" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="E17" sqref="E17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1779,15 +1779,13 @@
       <c r="D17" s="19">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="22">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1612799999</v>
+      <c r="G17" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1803,15 +1801,13 @@
       <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="22">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1612799999</v>
+      <c r="G18" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,15 +1823,13 @@
       <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="22">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1612799999</v>
+      <c r="G19" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1855,11 +1849,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="22">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1612799999</v>
+      <c r="G20" s="13">
+        <v>1612828800</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +513,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1366,15 +1369,15 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E19"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="6" customWidth="1"/>
@@ -1438,10 +1441,10 @@
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="7">
@@ -1462,13 +1465,13 @@
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -1488,7 +1491,7 @@
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="23">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1512,7 +1515,7 @@
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="23">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1535,7 +1538,7 @@
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="23">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1558,7 +1561,7 @@
       <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="23">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1581,13 +1584,13 @@
       <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>65</v>
       </c>
-      <c r="D9" s="20">
-        <v>2</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
         <v>1</v>
       </c>
       <c r="F9" s="21"/>
@@ -1605,13 +1608,13 @@
       <c r="B10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>66</v>
       </c>
-      <c r="D10" s="20">
-        <v>2</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="21">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
         <v>1</v>
       </c>
       <c r="F10" s="21"/>
@@ -1629,13 +1632,13 @@
       <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="21">
         <v>67</v>
       </c>
-      <c r="D11" s="20">
-        <v>2</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21">
         <v>1</v>
       </c>
       <c r="F11" s="21"/>
@@ -1653,13 +1656,13 @@
       <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>68</v>
       </c>
-      <c r="D12" s="20">
-        <v>2</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21">
         <v>5</v>
       </c>
       <c r="F12" s="21"/>

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,21 @@
   </si>
   <si>
     <t>168,169,176,178,186,187,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>84,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +478,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -533,6 +548,7 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1088,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1371,6 +1387,40 @@
       </c>
       <c r="E15" s="11" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="11">
+        <v>290</v>
+      </c>
+      <c r="D16" s="11">
+        <v>300</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="11">
+        <v>290</v>
+      </c>
+      <c r="D17" s="11">
+        <v>300</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2210,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1619,10 +1619,10 @@
         <v>63</v>
       </c>
       <c r="D16" s="11">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>64</v>
@@ -1641,10 +1641,10 @@
         <v>65</v>
       </c>
       <c r="D17" s="11">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="11">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>66</v>
@@ -2843,7 +2843,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +84,6 @@
   <si>
     <t>min_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>create_weight2</t>
   </si>
   <si>
     <t>create_pro|三个档次的出生率</t>
@@ -205,10 +196,6 @@
   </si>
   <si>
     <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,12 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
     <t>dead_force_create_index|死亡强制创建标志索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,43 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,
-179,180,181,179,180,181,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,182,183,185,176,167,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,184,185,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,186,187,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>188,188,188,189,189,189,189,189,189,189,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +293,150 @@
   </si>
   <si>
     <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +508,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,7 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +578,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,16 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,16 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -545,10 +626,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -847,25 +946,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -914,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,323 +1203,905 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="11">
+        <v>180</v>
+      </c>
+      <c r="E2" s="11">
+        <v>220</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11">
         <v>180</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E3" s="11">
         <v>220</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="11">
-        <v>180</v>
-      </c>
-      <c r="D3" s="11">
-        <v>220</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>250</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11">
         <v>300</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>500</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="11">
         <v>400</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>600</v>
       </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="11">
+        <v>71</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="11">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11">
         <v>280</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <v>300</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11">
+        <v>73</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="11">
         <v>40</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>80</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="11">
+        <v>74</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11">
         <v>1500</v>
       </c>
-      <c r="D11" s="11">
+      <c r="E11" s="11">
         <v>1800</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11">
+        <v>76</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="11">
         <v>3000</v>
       </c>
-      <c r="D12" s="11">
+      <c r="E12" s="11">
         <v>3300</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="11">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="11">
         <v>4500</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>4800</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="11">
+        <v>78</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11">
         <v>500</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>700</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="11">
+        <v>79</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="11">
         <v>2000</v>
       </c>
-      <c r="D15" s="11">
+      <c r="E15" s="11">
         <v>4000</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11">
         <v>290</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E16" s="11">
         <v>300</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="11">
         <v>290</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>300</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>81</v>
+      <c r="F17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="28">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="28">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="28">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="28">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="28">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="24">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="24">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="28">
+        <v>1612828800</v>
+      </c>
+      <c r="J23" s="28">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E25" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="25">
+        <v>6000</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="31">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="31">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E31" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="31">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="31">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="31">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="31">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="31">
+        <v>1614038400</v>
+      </c>
+      <c r="J33" s="31">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="31">
+        <v>1614038400</v>
+      </c>
+      <c r="J34" s="31">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="26">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="31">
+        <v>1614038400</v>
+      </c>
+      <c r="J35" s="31">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +2116,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1452,28 +2133,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1481,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1505,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8">
         <v>16</v>
@@ -1529,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8">
         <v>17</v>
@@ -1555,9 +2236,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="20">
+        <v>39</v>
+      </c>
+      <c r="C5" s="16">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1579,9 +2260,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="20">
+        <v>39</v>
+      </c>
+      <c r="C6" s="16">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1602,9 +2283,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="20">
+        <v>39</v>
+      </c>
+      <c r="C7" s="16">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1625,9 +2306,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="20">
+        <v>39</v>
+      </c>
+      <c r="C8" s="16">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1643,377 +2324,277 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14">
         <v>65</v>
       </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18">
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    <row r="10" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14">
         <v>66</v>
       </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14">
         <v>67</v>
       </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14">
         <v>68</v>
       </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="14">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="B13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15">
         <v>70</v>
       </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19">
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="19">
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="15">
         <v>71</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19">
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15">
         <v>72</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19">
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15">
         <v>73</v>
       </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
         <v>5</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19">
+      <c r="F16" s="14"/>
+      <c r="G16" s="15">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15">
-        <v>74</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15">
-        <v>1612828800</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1613404799</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="15">
-        <v>75</v>
-      </c>
-      <c r="D18" s="16">
-        <v>2</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15">
-        <v>1612828800</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1613404799</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="15">
-        <v>76</v>
-      </c>
-      <c r="D19" s="16">
-        <v>2</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15">
-        <v>1612828800</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1613404799</v>
-      </c>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="15">
-        <v>77</v>
-      </c>
-      <c r="D20" s="16">
-        <v>2</v>
-      </c>
-      <c r="E20" s="16">
-        <v>5</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15">
-        <v>1612828800</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1613404799</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="25">
-        <v>78</v>
-      </c>
-      <c r="D21" s="26">
-        <v>2</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="25">
-        <v>79</v>
-      </c>
-      <c r="D22" s="26">
-        <v>2</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="25">
-        <v>80</v>
-      </c>
-      <c r="D23" s="26">
-        <v>2</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H23" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="25">
-        <v>81</v>
-      </c>
-      <c r="D24" s="26">
-        <v>2</v>
-      </c>
-      <c r="E24" s="26">
-        <v>5</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="13">
-        <v>1613433600</v>
-      </c>
-      <c r="H24" s="13">
-        <v>1614009599</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2211,7 +2792,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2225,19 +2806,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2245,113 +2826,73 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>71</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
@@ -2691,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2756,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,61 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +633,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,9 +682,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1604,27 +1656,27 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>1200</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>3000</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="28">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="27">
         <v>1612828800</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <v>1613404799</v>
       </c>
     </row>
@@ -1632,27 +1684,27 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>1200</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>3000</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="28">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="27">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <v>1613404799</v>
       </c>
     </row>
@@ -1660,27 +1712,27 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>1200</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>3000</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="28">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="27">
         <v>1612828800</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="27">
         <v>1613404799</v>
       </c>
     </row>
@@ -1688,27 +1740,27 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>1200</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>3000</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="28">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="27">
         <v>1612828800</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="27">
         <v>1613404799</v>
       </c>
     </row>
@@ -1716,27 +1768,27 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>1200</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>3000</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="28">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="27">
         <v>1612828800</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="27">
         <v>1613404799</v>
       </c>
     </row>
@@ -1744,27 +1796,27 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>3000</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>6000</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="28">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="27">
         <v>1612828800</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="27">
         <v>1613404799</v>
       </c>
     </row>
@@ -1772,23 +1824,23 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>1200</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>3000</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="17">
         <v>1613433600</v>
       </c>
@@ -1800,23 +1852,23 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>1200</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <v>3000</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="17">
         <v>1613433600</v>
       </c>
@@ -1828,23 +1880,23 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>1200</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>3000</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="17">
         <v>1613433600</v>
       </c>
@@ -1856,23 +1908,23 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>1200</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>3000</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="17">
         <v>1613433600</v>
       </c>
@@ -1884,23 +1936,23 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>1200</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>3000</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="17">
         <v>1613433600</v>
       </c>
@@ -1912,23 +1964,23 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>3000</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>6000</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="17">
         <v>1613433600</v>
       </c>
@@ -1940,27 +1992,27 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="25">
         <v>1200</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>3000</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="31">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="30">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <v>1614614399</v>
       </c>
     </row>
@@ -1968,27 +2020,27 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>1200</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>3000</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="31">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="30">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="30">
         <v>1614614399</v>
       </c>
     </row>
@@ -1996,27 +2048,27 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>1200</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>3000</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="31">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="30">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="30">
         <v>1614614399</v>
       </c>
     </row>
@@ -2024,27 +2076,27 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <v>1200</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="25">
         <v>3000</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="31">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="30">
         <v>1614038400</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="30">
         <v>1614614399</v>
       </c>
     </row>
@@ -2052,27 +2104,27 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="25">
         <v>1200</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="25">
         <v>3000</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="31">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="30">
         <v>1614038400</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="30">
         <v>1614614399</v>
       </c>
     </row>
@@ -2080,27 +2132,27 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="25">
         <v>3000</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>6000</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="31">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="30">
         <v>1614038400</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="30">
         <v>1614614399</v>
       </c>
     </row>
@@ -2559,7 +2611,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -2569,7 +2621,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2579,7 +2631,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2589,7 +2641,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2791,8 +2843,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2839,32 +2891,72 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="115">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,69 @@
     <t>常规活动鱼boss2.23</t>
   </si>
   <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>常规活动鱼2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,14 +440,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>161,162,163,164,165,166,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常规活动鱼boss2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,14 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>179,180,181,182,183,184</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,62 +472,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +618,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -678,9 +682,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1238,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,10 +1282,10 @@
         <v>49</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1633,24 +1636,24 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D18" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E18" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>101</v>
+        <v>300</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -1661,24 +1664,24 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E19" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>102</v>
+        <v>300</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -1689,24 +1692,24 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D20" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E20" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>101</v>
+        <v>300</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -1717,23 +1720,23 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D21" s="23">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E21" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F21" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="23"/>
@@ -1745,23 +1748,23 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D22" s="23">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="23">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="31" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="23"/>
@@ -1773,35 +1776,35 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="23">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="23">
-        <v>6000</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="B23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="24">
+        <v>200</v>
+      </c>
+      <c r="E23" s="24">
+        <v>300</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="27">
-        <v>1612828800</v>
-      </c>
-      <c r="J23" s="27">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="17">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1809,15 +1812,15 @@
         <v>82</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F24" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="24"/>
@@ -1829,7 +1832,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -1837,15 +1840,15 @@
         <v>82</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D25" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E25" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F25" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="24"/>
@@ -1857,7 +1860,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -1865,15 +1868,15 @@
         <v>82</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D26" s="24">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E26" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F26" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="24"/>
@@ -1885,23 +1888,23 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D27" s="24">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F27" s="32" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="24"/>
@@ -1913,63 +1916,63 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="25">
+        <v>200</v>
+      </c>
+      <c r="E28" s="25">
+        <v>300</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="17">
-        <v>1613433600</v>
-      </c>
-      <c r="J28" s="17">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="24">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="24">
-        <v>6000</v>
-      </c>
-      <c r="F29" s="32" t="s">
+      <c r="B29" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="25">
+        <v>200</v>
+      </c>
+      <c r="E29" s="25">
+        <v>300</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="17">
-        <v>1613433600</v>
-      </c>
-      <c r="J29" s="17">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="30">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="30">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -1977,15 +1980,15 @@
         <v>84</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D30" s="25">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E30" s="25">
-        <v>3000</v>
-      </c>
-      <c r="F30" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="25"/>
@@ -1997,7 +2000,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2005,15 +2008,15 @@
         <v>84</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D31" s="25">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E31" s="25">
-        <v>3000</v>
-      </c>
-      <c r="F31" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="25"/>
@@ -2025,23 +2028,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D32" s="25">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="25">
-        <v>3000</v>
-      </c>
-      <c r="F32" s="33" t="s">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="25"/>
@@ -2053,89 +2056,23 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="25">
-        <v>1200</v>
-      </c>
-      <c r="E33" s="25">
-        <v>3000</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="30">
-        <v>1614038400</v>
-      </c>
-      <c r="J33" s="30">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1200</v>
-      </c>
-      <c r="E34" s="25">
-        <v>3000</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="30">
-        <v>1614038400</v>
-      </c>
-      <c r="J34" s="30">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="25">
-        <v>3000</v>
-      </c>
-      <c r="E35" s="25">
-        <v>6000</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="30">
-        <v>1614038400</v>
-      </c>
-      <c r="J35" s="30">
-        <v>1614614399</v>
-      </c>
+    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="20"/>
+      <c r="F33" s="32"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="20"/>
+      <c r="F34" s="32"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="20"/>
+      <c r="F35" s="32"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2824,7 +2761,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2875,13 +2812,13 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2890,13 +2827,13 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2905,13 +2842,13 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="15" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2920,13 +2857,13 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -320,19 +320,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,
+179,180,181,179,180,181,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,182,183,185,176,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,184,185,185,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,186,187,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +463,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,6 +530,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2157,7 +2161,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2203,11 +2207,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="15" t="s">

--- a/config_2.9/fish_3d_yutu_random_4.xlsx
+++ b/config_2.9/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,9 +226,6 @@
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>max_create_num|最大的创建次数（默认为9999）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,40,30</t>
   </si>
   <si>
@@ -455,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
   </si>
   <si>
@@ -466,10 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,60,5</t>
   </si>
   <si>
@@ -477,10 +462,6 @@
   </si>
   <si>
     <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1257,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1258,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -1295,13 +1276,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1309,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="11">
         <v>180</v>
@@ -1321,7 +1302,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -1331,10 +1312,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11">
         <v>180</v>
@@ -1343,7 +1324,7 @@
         <v>220</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1353,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="11">
         <v>200</v>
@@ -1365,7 +1346,7 @@
         <v>250</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -1375,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1395,10 +1376,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1415,10 +1396,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
@@ -1436,10 +1417,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11">
         <v>280</v>
@@ -1457,10 +1438,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="11">
         <v>40</v>
@@ -1479,10 +1460,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -1501,10 +1482,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11">
         <v>1500</v>
@@ -1513,7 +1494,7 @@
         <v>1800</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1524,10 +1505,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11">
         <v>3000</v>
@@ -1536,7 +1517,7 @@
         <v>3300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1547,10 +1528,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11">
         <v>4500</v>
@@ -1559,7 +1540,7 @@
         <v>4800</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1569,10 +1550,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="11">
         <v>500</v>
@@ -1591,10 +1572,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="11">
         <v>2000</v>
@@ -1613,10 +1594,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="11">
         <v>3000</v>
@@ -1625,7 +1606,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
@@ -1635,10 +1616,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11">
         <v>3000</v>
@@ -1647,7 +1628,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
@@ -1657,10 +1638,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="23">
         <v>1200</v>
@@ -1669,7 +1650,7 @@
         <v>3000</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -1685,10 +1666,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="23">
         <v>1200</v>
@@ -1697,7 +1678,7 @@
         <v>3000</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -1713,10 +1694,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="23">
         <v>1200</v>
@@ -1725,7 +1706,7 @@
         <v>3000</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -1741,10 +1722,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="23">
         <v>1200</v>
@@ -1769,10 +1750,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="23">
         <v>1200</v>
@@ -1797,10 +1778,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>92</v>
       </c>
       <c r="D23" s="23">
         <v>3000</v>
@@ -1825,10 +1806,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="24">
         <v>1200</v>
@@ -1853,10 +1834,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="24">
         <v>1200</v>
@@ -1881,10 +1862,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="24">
         <v>1200</v>
@@ -1909,10 +1890,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="24">
         <v>1200</v>
@@ -1937,10 +1918,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="24">
         <v>1200</v>
@@ -1965,10 +1946,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="24">
         <v>3000</v>
@@ -1993,10 +1974,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="25">
         <v>1200</v>
@@ -2021,10 +2002,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="25">
         <v>1200</v>
@@ -2049,10 +2030,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="25">
         <v>1200</v>
@@ -2077,10 +2058,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="25">
         <v>1200</v>
@@ -2105,10 +2086,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="25">
         <v>1200</v>
@@ -2133,10 +2114,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="25">
         <v>3000</v>
@@ -2843,8 +2824,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2877,9 +2858,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2894,68 +2873,60 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>108</v>
-      </c>
+      <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>111</v>
-      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
